--- a/input/144L_2018_BactAbund.xlsx
+++ b/input/144L_2018_BactAbund.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasbaetge/GITHUB/eemb144l/Input_Data/week3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholasbaetge/GITHUB/acidd_remins/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38BB174-D4C5-4F42-AC32-372EA7473B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322B7E4D-9B2F-1B4B-B542-E76F5D057885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="2280" windowWidth="22500" windowHeight="17720" xr2:uid="{F709D6EC-9781-194F-92A9-3A8FA05D336F}"/>
+    <workbookView xWindow="29080" yWindow="1760" windowWidth="22500" windowHeight="17720" xr2:uid="{F709D6EC-9781-194F-92A9-3A8FA05D336F}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Depth</t>
   </si>
   <si>
-    <t>Target_DOC_Amendment</t>
-  </si>
-  <si>
     <t>Inoculum_L</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>2018-10-24T16:30</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
     <t>144_A0_S6</t>
   </si>
   <si>
@@ -229,6 +223,12 @@
   </si>
   <si>
     <t>DNA_SampleID</t>
+  </si>
+  <si>
+    <t>Temperature_C</t>
+  </si>
+  <si>
+    <t>Target_DOC_Amendment_uM</t>
   </si>
 </sst>
 </file>
@@ -590,10 +590,13 @@
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -603,7 +606,7 @@
         <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>19</v>
@@ -618,31 +621,31 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
       <c r="P1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -677,7 +680,7 @@
         <v>3.5</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -692,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -727,7 +730,7 @@
         <v>3.5</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -774,7 +777,7 @@
         <v>3.5</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -821,7 +824,7 @@
         <v>3.5</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -868,7 +871,7 @@
         <v>3.5</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -918,7 +921,7 @@
         <v>3.5</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -965,7 +968,7 @@
         <v>3.5</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1012,7 +1015,7 @@
         <v>3.5</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -1059,7 +1062,7 @@
         <v>3.5</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1074,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1109,7 +1112,7 @@
         <v>3.5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -1156,7 +1159,7 @@
         <v>3.5</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1171,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1206,7 +1209,7 @@
         <v>3.5</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -1253,7 +1256,7 @@
         <v>3.5</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1300,7 +1303,7 @@
         <v>3.5</v>
       </c>
       <c r="K15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -1347,7 +1350,7 @@
         <v>3.5</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1362,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1397,7 +1400,7 @@
         <v>3.5</v>
       </c>
       <c r="K17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -1444,7 +1447,7 @@
         <v>3.5</v>
       </c>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1491,7 +1494,7 @@
         <v>3.5</v>
       </c>
       <c r="K19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1538,7 +1541,7 @@
         <v>3.5</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -1553,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1588,7 +1591,7 @@
         <v>3.5</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1623,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -1635,7 +1638,7 @@
         <v>3.5</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -1650,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1673,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23">
         <v>10</v>
@@ -1685,7 +1688,7 @@
         <v>3.5</v>
       </c>
       <c r="K23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1720,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -1732,7 +1735,7 @@
         <v>3.5</v>
       </c>
       <c r="K24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1767,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H25">
         <v>10</v>
@@ -1779,7 +1782,7 @@
         <v>3.5</v>
       </c>
       <c r="K25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1814,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26">
         <v>10</v>
@@ -1826,7 +1829,7 @@
         <v>3.5</v>
       </c>
       <c r="K26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L26" t="b">
         <v>1</v>
@@ -1841,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
@@ -1864,7 +1867,7 @@
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27">
         <v>10</v>
@@ -1876,7 +1879,7 @@
         <v>3.5</v>
       </c>
       <c r="K27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1911,7 +1914,7 @@
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28">
         <v>10</v>
@@ -1923,7 +1926,7 @@
         <v>3.5</v>
       </c>
       <c r="K28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1958,7 +1961,7 @@
         <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29">
         <v>10</v>
@@ -1970,7 +1973,7 @@
         <v>3.5</v>
       </c>
       <c r="K29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2005,7 +2008,7 @@
         <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30">
         <v>10</v>
@@ -2017,7 +2020,7 @@
         <v>3.5</v>
       </c>
       <c r="K30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
@@ -2032,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
@@ -2055,7 +2058,7 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H31">
         <v>10</v>
@@ -2067,7 +2070,7 @@
         <v>3.5</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -2102,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32">
         <v>10</v>
@@ -2114,7 +2117,7 @@
         <v>3.5</v>
       </c>
       <c r="K32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L32" t="b">
         <v>1</v>
@@ -2129,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
@@ -2152,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33">
         <v>10</v>
@@ -2164,7 +2167,7 @@
         <v>3.5</v>
       </c>
       <c r="K33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -2199,7 +2202,7 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34">
         <v>10</v>
@@ -2211,7 +2214,7 @@
         <v>3.5</v>
       </c>
       <c r="K34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -2246,7 +2249,7 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H35">
         <v>10</v>
@@ -2258,7 +2261,7 @@
         <v>3.5</v>
       </c>
       <c r="K35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -2293,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36">
         <v>10</v>
@@ -2305,7 +2308,7 @@
         <v>3.5</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
@@ -2320,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="P36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
@@ -2343,7 +2346,7 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37">
         <v>10</v>
@@ -2355,7 +2358,7 @@
         <v>3.5</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -2390,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H38">
         <v>10</v>
@@ -2402,7 +2405,7 @@
         <v>3.5</v>
       </c>
       <c r="K38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -2437,7 +2440,7 @@
         <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H39">
         <v>10</v>
@@ -2449,7 +2452,7 @@
         <v>3.5</v>
       </c>
       <c r="K39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L39" t="b">
         <v>0</v>
@@ -2484,7 +2487,7 @@
         <v>8</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H40">
         <v>10</v>
@@ -2496,7 +2499,7 @@
         <v>3.5</v>
       </c>
       <c r="K40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
@@ -2511,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -2534,7 +2537,7 @@
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H41">
         <v>10</v>
@@ -2546,7 +2549,7 @@
         <v>3.5</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L41" t="b">
         <v>0</v>
@@ -2581,20 +2584,20 @@
         <v>0</v>
       </c>
       <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>1.5</v>
+      </c>
+      <c r="J42">
+        <v>3.5</v>
+      </c>
+      <c r="K42" t="s">
         <v>28</v>
       </c>
-      <c r="H42">
-        <v>10</v>
-      </c>
-      <c r="I42">
-        <v>1.5</v>
-      </c>
-      <c r="J42">
-        <v>3.5</v>
-      </c>
-      <c r="K42" t="s">
-        <v>29</v>
-      </c>
       <c r="L42" t="b">
         <v>1</v>
       </c>
@@ -2608,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -2631,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H43">
         <v>10</v>
@@ -2643,7 +2646,7 @@
         <v>3.5</v>
       </c>
       <c r="K43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L43" t="b">
         <v>0</v>
@@ -2678,7 +2681,7 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H44">
         <v>10</v>
@@ -2690,7 +2693,7 @@
         <v>3.5</v>
       </c>
       <c r="K44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L44" t="b">
         <v>0</v>
@@ -2725,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H45">
         <v>10</v>
@@ -2737,7 +2740,7 @@
         <v>3.5</v>
       </c>
       <c r="K45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L45" t="b">
         <v>0</v>
@@ -2772,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H46">
         <v>10</v>
@@ -2784,7 +2787,7 @@
         <v>3.5</v>
       </c>
       <c r="K46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L46" t="b">
         <v>1</v>
@@ -2799,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="P46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -2822,7 +2825,7 @@
         <v>5</v>
       </c>
       <c r="G47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H47">
         <v>10</v>
@@ -2834,7 +2837,7 @@
         <v>3.5</v>
       </c>
       <c r="K47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L47" t="b">
         <v>0</v>
@@ -2869,7 +2872,7 @@
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H48">
         <v>10</v>
@@ -2881,7 +2884,7 @@
         <v>3.5</v>
       </c>
       <c r="K48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L48" t="b">
         <v>0</v>
@@ -2916,7 +2919,7 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H49">
         <v>10</v>
@@ -2928,7 +2931,7 @@
         <v>3.5</v>
       </c>
       <c r="K49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L49" t="b">
         <v>0</v>
@@ -2963,7 +2966,7 @@
         <v>8</v>
       </c>
       <c r="G50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H50">
         <v>10</v>
@@ -2975,7 +2978,7 @@
         <v>3.5</v>
       </c>
       <c r="K50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L50" t="b">
         <v>1</v>
@@ -2990,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
@@ -3013,7 +3016,7 @@
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H51">
         <v>10</v>
@@ -3025,7 +3028,7 @@
         <v>3.5</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L51" t="b">
         <v>0</v>
@@ -3060,20 +3063,20 @@
         <v>0</v>
       </c>
       <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>1.5</v>
+      </c>
+      <c r="J52">
+        <v>3.5</v>
+      </c>
+      <c r="K52" t="s">
         <v>28</v>
       </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
-      <c r="I52">
-        <v>1.5</v>
-      </c>
-      <c r="J52">
-        <v>3.5</v>
-      </c>
-      <c r="K52" t="s">
-        <v>29</v>
-      </c>
       <c r="L52" t="b">
         <v>1</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="P52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
@@ -3110,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H53">
         <v>10</v>
@@ -3122,7 +3125,7 @@
         <v>3.5</v>
       </c>
       <c r="K53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L53" t="b">
         <v>0</v>
@@ -3157,7 +3160,7 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H54">
         <v>10</v>
@@ -3169,7 +3172,7 @@
         <v>3.5</v>
       </c>
       <c r="K54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L54" t="b">
         <v>0</v>
@@ -3204,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H55">
         <v>10</v>
@@ -3216,7 +3219,7 @@
         <v>3.5</v>
       </c>
       <c r="K55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L55" t="b">
         <v>0</v>
@@ -3251,7 +3254,7 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H56">
         <v>10</v>
@@ -3263,7 +3266,7 @@
         <v>3.5</v>
       </c>
       <c r="K56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
@@ -3278,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
@@ -3301,7 +3304,7 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H57">
         <v>10</v>
@@ -3313,7 +3316,7 @@
         <v>3.5</v>
       </c>
       <c r="K57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L57" t="b">
         <v>0</v>
@@ -3348,7 +3351,7 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H58">
         <v>10</v>
@@ -3360,7 +3363,7 @@
         <v>3.5</v>
       </c>
       <c r="K58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L58" t="b">
         <v>0</v>
@@ -3395,7 +3398,7 @@
         <v>7</v>
       </c>
       <c r="G59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H59">
         <v>10</v>
@@ -3407,7 +3410,7 @@
         <v>3.5</v>
       </c>
       <c r="K59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L59" t="b">
         <v>0</v>
@@ -3442,7 +3445,7 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H60">
         <v>10</v>
@@ -3454,7 +3457,7 @@
         <v>3.5</v>
       </c>
       <c r="K60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L60" t="b">
         <v>1</v>
@@ -3469,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="P60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -3492,7 +3495,7 @@
         <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H61">
         <v>10</v>
@@ -3504,7 +3507,7 @@
         <v>3.5</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L61" t="b">
         <v>0</v>
@@ -3551,7 +3554,7 @@
         <v>3.5</v>
       </c>
       <c r="K62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L62" t="b">
         <v>1</v>
@@ -3566,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="P62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
@@ -3601,7 +3604,7 @@
         <v>3.5</v>
       </c>
       <c r="K63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L63" t="b">
         <v>0</v>
@@ -3648,7 +3651,7 @@
         <v>3.5</v>
       </c>
       <c r="K64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L64" t="b">
         <v>0</v>
@@ -3695,7 +3698,7 @@
         <v>3.5</v>
       </c>
       <c r="K65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L65" t="b">
         <v>0</v>
@@ -3742,7 +3745,7 @@
         <v>3.5</v>
       </c>
       <c r="K66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L66" t="b">
         <v>1</v>
@@ -3757,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="P66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
@@ -3792,7 +3795,7 @@
         <v>3.5</v>
       </c>
       <c r="K67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L67" t="b">
         <v>0</v>
@@ -3839,7 +3842,7 @@
         <v>3.5</v>
       </c>
       <c r="K68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L68" t="b">
         <v>0</v>
@@ -3886,7 +3889,7 @@
         <v>3.5</v>
       </c>
       <c r="K69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L69" t="b">
         <v>0</v>
@@ -3933,7 +3936,7 @@
         <v>3.5</v>
       </c>
       <c r="K70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L70" t="b">
         <v>1</v>
@@ -3948,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="P70" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
@@ -3983,7 +3986,7 @@
         <v>3.5</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L71" t="b">
         <v>0</v>
@@ -4030,7 +4033,7 @@
         <v>3.5</v>
       </c>
       <c r="K72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L72" t="b">
         <v>1</v>
@@ -4045,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
@@ -4080,7 +4083,7 @@
         <v>3.5</v>
       </c>
       <c r="K73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L73" t="b">
         <v>0</v>
@@ -4127,7 +4130,7 @@
         <v>3.5</v>
       </c>
       <c r="K74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L74" t="b">
         <v>0</v>
@@ -4174,7 +4177,7 @@
         <v>3.5</v>
       </c>
       <c r="K75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L75" t="b">
         <v>0</v>
@@ -4221,7 +4224,7 @@
         <v>3.5</v>
       </c>
       <c r="K76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L76" t="b">
         <v>1</v>
@@ -4236,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="P76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -4271,7 +4274,7 @@
         <v>3.5</v>
       </c>
       <c r="K77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L77" t="b">
         <v>0</v>
@@ -4318,7 +4321,7 @@
         <v>3.5</v>
       </c>
       <c r="K78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L78" t="b">
         <v>0</v>
@@ -4365,7 +4368,7 @@
         <v>3.5</v>
       </c>
       <c r="K79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L79" t="b">
         <v>0</v>
@@ -4412,7 +4415,7 @@
         <v>3.5</v>
       </c>
       <c r="K80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L80" t="b">
         <v>1</v>
@@ -4427,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="P80" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
@@ -4462,7 +4465,7 @@
         <v>3.5</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L81" t="b">
         <v>0</v>
